--- a/prep_and_checklists/Pattern  /PREP_REQ_Pattern  _Wednesday, July 23, 2025  _0.xlsx
+++ b/prep_and_checklists/Pattern  /PREP_REQ_Pattern  _Wednesday, July 23, 2025  _0.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Pattern  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCCC341-A414-5C40-8DE2-1956281A3C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A1225-3984-F849-A7CB-3212A3CC0445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep Req" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>EVENT PREP 07-10-2025</t>
   </si>
@@ -46,9 +59,6 @@
     <t>station crudite  &amp; mezze / cheese &amp; charcuterie</t>
   </si>
   <si>
-    <t>2025-07-23, by 4pm</t>
-  </si>
-  <si>
     <t>fava bean hummus</t>
   </si>
   <si>
@@ -58,37 +68,16 @@
     <t>whipped chive oil creme fraiche</t>
   </si>
   <si>
-    <t>whipped tahini sauce</t>
+    <t>1 x recipe</t>
   </si>
   <si>
-    <t xml:space="preserve">station sides </t>
+    <t>1x recipe</t>
   </si>
   <si>
-    <t>pickled fresno chilis</t>
+    <t>2 pints</t>
   </si>
   <si>
-    <t>whipped sheeps milk feta</t>
-  </si>
-  <si>
-    <t>cook quinoa</t>
-  </si>
-  <si>
-    <t>cook farro</t>
-  </si>
-  <si>
-    <t>cook bulgur</t>
-  </si>
-  <si>
-    <t>cut and roast mulitcolor carrots</t>
-  </si>
-  <si>
-    <t>carrot vin</t>
-  </si>
-  <si>
-    <t>pitted dates</t>
-  </si>
-  <si>
-    <t>dukkah</t>
+    <t>Tuesday, July 22, by 4pm</t>
   </si>
 </sst>
 </file>
@@ -496,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V979"/>
+  <dimension ref="A1:V969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -507,7 +496,8 @@
     <col min="1" max="1" width="42.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.1640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
     <col min="7" max="22" width="8.83203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="14.5" style="2" customWidth="1"/>
@@ -578,14 +568,16 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="4"/>
@@ -608,14 +600,16 @@
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="10"/>
@@ -638,14 +632,16 @@
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
@@ -667,16 +663,10 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
@@ -697,18 +687,12 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -727,18 +711,12 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -757,18 +735,12 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -787,16 +759,10 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
@@ -817,16 +783,10 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
@@ -847,18 +807,12 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -877,16 +831,10 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
@@ -907,16 +855,10 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
@@ -937,18 +879,12 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -970,9 +906,9 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -994,9 +930,9 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1018,9 +954,9 @@
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1042,9 +978,9 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1138,9 +1074,9 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1162,9 +1098,9 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1182,13 +1118,13 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1206,13 +1142,13 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1230,13 +1166,13 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1254,13 +1190,13 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1278,13 +1214,13 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1302,13 +1238,13 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1326,13 +1262,13 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1350,247 +1286,87 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1598,7 +1374,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1606,7 +1382,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1614,7 +1390,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1622,7 +1398,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1630,7 +1406,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1638,7 +1414,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1678,86 +1454,16 @@
       <c r="E52" s="12"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
-    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2665,16 +2371,6 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
